--- a/public/preprocessing/@sandalista1789.xlsx
+++ b/public/preprocessing/@sandalista1789.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23799</v>
+        <v>24128</v>
       </c>
       <c r="C2" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   kampret lu bong</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kampret', 'lu', 'bong']</t>
+          <t>['cc']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['cc']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kampret', 'lu', 'bong']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kampret', 'lu', 'bong']</t>
+          <t>['cc']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['cc']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23800</v>
+        <v>24129</v>
       </c>
       <c r="C3" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joko wildoko</t>
+          <t>maklum limbah pemilu kardus</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['joko', 'wildoko']</t>
+          <t>['maklum', 'limbah', 'pemilu', 'kardus']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['maklum', 'limbah', 'pemilihan, umum', 'kardus']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['joko', 'wildoko']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['joko', 'wildoko']</t>
+          <t>['maklum', 'limbah', 'pemilihan, umum', 'kardus']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['maklum', 'limbah', 'pilih umum', 'kardus']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23801</v>
+        <v>24130</v>
       </c>
       <c r="C4" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>negara saja bisa diambil alih apalagi sekadar partai</t>
+          <t>beberapa ide</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['negara', 'saja', 'bisa', 'diambil', 'alih', 'apalagi', 'sekadar', 'partai']</t>
+          <t>['beberapa', 'ide']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['beberapa', 'ide']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['negara', 'diambil', 'alih', 'partai']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['negara', 'ambil', 'alih', 'partai']</t>
+          <t>['ide']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['ide']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23802</v>
+        <v>24131</v>
       </c>
       <c r="C5" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kami jadi tahu apa yang bakal terjadi nanti</t>
+          <t>kenapa tidak memasukkan limbah yang keluar dari bacot penguasa ke dalam kategori limbah berbahaya dan beracun</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kami', 'jadi', 'tahu', 'apa', 'yang', 'bakal', 'terjadi', 'nanti']</t>
+          <t>['kenapa', 'tidak', 'memasukkan', 'limbah', 'yang', 'keluar', 'dari', 'bacot', 'penguasa', 'ke', 'dalam', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kenapa', 'tidak', 'memasukkan', 'limbah', 'yang', 'keluar', 'dari', 'bacot', 'penguasa', 'ke', 'dalam', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['memasukkan', 'limbah', 'bacot', 'penguasa', 'kategori', 'limbah', 'berbahaya', 'beracun']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['masuk', 'limbah', 'bacot', 'kuasa', 'kategori', 'limbah', 'bahaya', 'racun']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23803</v>
+        <v>24132</v>
       </c>
       <c r="C6" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>lho kenapa bukan joko widodo saja</t>
+          <t>rt bung gimana nih bung</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['lho', 'kenapa', 'bukan', 'joko', 'widodo', 'saja']</t>
+          <t>['rt', 'bung', 'gimana', 'nih', 'bung']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'bung', 'bagaimana', 'nih', 'bung']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['lho', 'joko', 'widodo']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['lho', 'joko', 'widodo']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23804</v>
+        <v>24133</v>
       </c>
       <c r="C7" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>tak ada sesuatu yang baru di bawah matahari</t>
+          <t>rt benar kata gus dur ya laksono amp</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['tak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
+          <t>['rt', 'benar', 'kata', 'gus', 'dur', 'ya', 'laksono', 'amp']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['rt', 'benar', 'kata', 'gus', 'dur', 'ya', 'laksono', 'amp']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['matahari']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['matahari']</t>
+          <t>['gus', 'dur', 'laksono']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['gus', 'dur', 'laksono']</t>
         </is>
       </c>
     </row>
@@ -691,30 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23805</v>
+        <v>24134</v>
       </c>
       <c r="C8" t="n">
-        <v>286</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>290</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>rt seperti sabda kang apa yg dibilang presiden nanti yg terjadi malah sebaliknya</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'seperti', 'sabda', 'kang', 'apa', 'yg', 'dibilang', 'presiden', 'nanti', 'yg', 'terjadi', 'malah', 'sebaliknya']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'seperti', 'sabda', 'kang', 'apa', 'yang', 'dibilang', 'presiden', 'nanti', 'yang', 'terjadi', 'malah', 'sebaliknya']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sabda', 'kang', 'dibilang', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sabda', 'kang', 'bilang', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -723,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23806</v>
+        <v>24135</v>
       </c>
       <c r="C9" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>rt laksono artinya sudah ada dua rumus  harusnya kejadian dulu baru kita tahu kalau sebaliknya ber</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>['rt', 'laksono', 'artinya', 'sudah', 'ada', 'dua', 'rumus', 'harusnya', 'kejadian', 'dulu', 'baru', 'kita', 'tahu', 'kalau', 'sebaliknya', 'ber']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'laksono', 'artinya', 'sudah', 'ada', 'dua', 'rumus', 'harusnya', 'kejadian', 'dulu', 'baru', 'kita', 'tahu', 'kalau', 'sebaliknya', 'ber']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>['laksono', 'rumus', 'kejadian', 'ber']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['laksono', 'rumus', 'jadi', 'ber']</t>
         </is>
       </c>
     </row>
@@ -759,30 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23807</v>
+        <v>24136</v>
       </c>
       <c r="C10" t="n">
-        <v>286</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>290</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rt sunarno aktivis buruh perempuan nining elitos ketua umum kasbi dkk dipanggil polda metrojaya terkait aksi unjuk rasa di </t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'sunarno', 'aktivis', 'buruh', 'perempuan', 'nining', 'elitos', 'ketua', 'umum', 'kasbi', 'dkk', 'dipanggil', 'polda', 'metrojaya', 'terkait', 'aksi', 'unjuk', 'rasa', 'di']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'sunarno', 'aktivis', 'buruh', 'perempuan', 'nining', 'elitos', 'ketua', 'umum', 'kasbi', 'dan, kawan, kawan', 'dipanggil', 'kepolisian, daerah', 'metrojaya', 'terkait', 'aksi', 'unjuk', 'rasa', 'di']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sunarno', 'aktivis', 'buruh', 'perempuan', 'nining', 'elitos', 'ketua', 'kasbi', 'dan, kawan, kawan', 'dipanggil', 'kepolisian, daerah', 'metrojaya', 'terkait', 'aksi', 'unjuk']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['sunarno', 'aktivis', 'buruh', 'perempuan', 'ning', 'elitos', 'ketua', 'kasbi', 'dan kawan kawan', 'panggil', 'polisi daerah', 'metrojaya', 'kait', 'aksi', 'unjuk']</t>
         </is>
       </c>
     </row>
@@ -791,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23808</v>
+        <v>24137</v>
       </c>
       <c r="C11" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ada baiknya memang polisi minta pendapat jaksa myanmar</t>
+          <t>rt ulyanov laksono</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['ada', 'baiknya', 'memang', 'polisi', 'minta', 'pendapat', 'jaksa', 'myanmar']</t>
+          <t>['rt', 'ulyanov', 'laksono']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'ulyanov', 'laksono']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['baiknya', 'polisi', 'pendapat', 'jaksa', 'myanmar']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['baik', 'polisi', 'dapat', 'jaksa', 'myanmar']</t>
+          <t>['ulyanov', 'laksono']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ulyanov', 'laksono']</t>
         </is>
       </c>
     </row>
@@ -827,30 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23809</v>
+        <v>24138</v>
       </c>
       <c r="C12" t="n">
-        <v>286</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>290</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>rt dua rumus memahami jokowi oleh laksono dan</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'dua', 'rumus', 'memahami', 'jokowi', 'oleh', 'laksono', 'dan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'dua', 'rumus', 'memahami', 'jokowi', 'oleh', 'laksono', 'dan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rumus', 'memahami', 'jokowi', 'laksono']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['rumus', 'paham', 'jokowi', 'laksono']</t>
         </is>
       </c>
     </row>
@@ -859,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23810</v>
+        <v>24139</v>
       </c>
       <c r="C13" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>tak sekeras hidup di bawah sepatu lars kolonialisme</t>
+          <t>sudah kuduga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['tak', 'sekeras', 'hidup', 'di', 'bawah', 'sepatu', 'lars', 'kolonialisme']</t>
+          <t>['sudah', 'kuduga']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sudah', 'aku, duga']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['sekeras', 'hidup', 'sepatu', 'lars', 'kolonialisme']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['keras', 'hidup', 'sepatu', 'lars', 'kolonialisme']</t>
+          <t>['aku, duga']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['aku duga']</t>
         </is>
       </c>
     </row>
@@ -895,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23811</v>
+        <v>24140</v>
       </c>
       <c r="C14" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rachma nyindir diri sendiri saya kira</t>
+          <t>setahun silam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rachma', 'nyindir', 'diri', 'sendiri', 'saya', 'kira']</t>
+          <t>['setahun', 'silam']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['setahun', 'silam']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['rachma', 'nyindir']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['rachma', 'nyindir']</t>
+          <t>['setahun', 'silam']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tahun', 'silam']</t>
         </is>
       </c>
     </row>
@@ -931,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23812</v>
+        <v>24141</v>
       </c>
       <c r="C15" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>myanmar di seberang lautan tampak papua di pelupuk mata tidak tampak</t>
+          <t>kirain moeldoko</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['myanmar', 'di', 'seberang', 'lautan', 'tampak', 'papua', 'di', 'pelupuk', 'mata', 'tidak', 'tampak']</t>
+          <t>['kirain', 'moeldoko']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
+          <t>['kiraan', 'moeldoko']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['myanmar', 'seberang', 'lautan', 'papua', 'pelupuk', 'mata']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['myanmar', 'seberang', 'laut', 'papua', 'pelupuk', 'mata']</t>
+          <t>['kiraan', 'moeldoko']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['kira', 'moeldoko']</t>
         </is>
       </c>
     </row>
@@ -967,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23813</v>
+        <v>24142</v>
       </c>
       <c r="C16" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt optimis periode</t>
+          <t>rt intan jaya west papua melianus nayagau  second year junior highschool student was shot dead by the indonesi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'optimis', 'periode']</t>
+          <t>['rt', 'intan', 'jaya', 'west', 'papua', 'melianus', 'nayagau', 'second', 'year', 'junior', 'highschool', 'student', 'was', 'shot', 'dead', 'by', 'the', 'indonesi']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'intan', 'jaya', 'west', 'papua', 'melianus', 'nayagau', 'second', 'tahun', 'junior', 'highschool', 'student', 'was', 'shot', 'dead', 'by', 'the', 'indonesia']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['optimis', 'periode']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['optimis', 'periode']</t>
+          <t>['intan', 'jaya', 'west', 'papua', 'melianus', 'nayagau', 'second', 'junior', 'highschool', 'student', 'was', 'shot', 'dead', 'by', 'the', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['intan', 'jaya', 'west', 'papua', 'melianus', 'nayagau', 'second', 'junior', 'highschool', 'student', 'was', 'shot', 'dead', 'by', 'the', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1003,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23814</v>
+        <v>24143</v>
       </c>
       <c r="C17" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>maret maret</t>
+          <t>rt anak smp ketembak tni tapi media mana yg liput semua bungkam kalau soal papua apalagi pelakunya dari aparat inilah salah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['maret', 'maret']</t>
+          <t>['rt', 'anak', 'smp', 'ketembak', 'tni', 'tapi', 'media', 'mana', 'yg', 'liput', 'semua', 'bungkam', 'kalau', 'soal', 'papua', 'apalagi', 'pelakunya', 'dari', 'aparat', 'inilah', 'salah']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'anak', 'sampai', 'ketembak', 'tentara, nasional, indonesia', 'tapi', 'media', 'mana', 'yang', 'liput', 'semua', 'bungkam', 'kalau', 'soal', 'papua', 'apalagi', 'pelakunya', 'dari', 'aparat', 'inilah', 'salah']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['maret', 'maret']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['maret', 'maret']</t>
+          <t>['anak', 'ketembak', 'tentara, nasional, indonesia', 'media', 'liput', 'bungkam', 'papua', 'pelakunya', 'aparat', 'salah']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['anak', 'tembak', 'tentara nasional indonesia', 'media', 'liput', 'bungkam', 'papua', 'laku', 'aparat', 'salah']</t>
         </is>
       </c>
     </row>
@@ -1039,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23815</v>
+        <v>24144</v>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>kirain cari harun masiku</t>
+          <t>anaknya ngeghosting anak orang bapaknya ngeghosting anak esemka</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['kirain', 'cari', 'harun', 'masiku']</t>
+          <t>['anaknya', 'ngeghosting', 'anak', 'orang', 'bapaknya', 'ngeghosting', 'anak', 'esemka']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['anaknya', 'ngeghosting', 'anak', 'orang', 'bapaknya', 'ngeghosting', 'anak', 'esemka']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kirain', 'cari', 'harun', 'masiku']</t>
+          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kirain', 'cari', 'harun', 'mas']</t>
+          <t>['anaknya', 'ngeghosting', 'anak', 'orang', 'bapaknya', 'ngeghosting', 'anak', 'esemka']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['anak', 'ngeghosting', 'anak', 'orang', 'bapak', 'ngeghosting', 'anak', 'esemka']</t>
         </is>
       </c>
     </row>
@@ -1075,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23816</v>
+        <v>24145</v>
       </c>
       <c r="C19" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hari binatang buzzerp indonesia</t>
+          <t>rt myanmar di seberang lautan tampak papua di pelupuk mata tak tampak</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['hari', 'binatang', 'buzzerp', 'indonesia']</t>
+          <t>['rt', 'myanmar', 'di', 'seberang', 'lautan', 'tampak', 'papua', 'di', 'pelupuk', 'mata', 'tak', 'tampak']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'myanmar', 'di', 'seberang', 'lautan', 'tampak', 'papua', 'di', 'pelupuk', 'mata', 'tak', 'tampak']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['binatang', 'buzzerp', 'indonesia']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['binatang', 'buzzerp', 'indonesia']</t>
+          <t>['myanmar', 'seberang', 'lautan', 'papua', 'pelupuk', 'mata']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['myanmar', 'seberang', 'laut', 'papua', 'pelupuk', 'mata']</t>
         </is>
       </c>
     </row>
@@ -1111,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23817</v>
+        <v>24146</v>
       </c>
       <c r="C20" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt mohon om pemred arsipkan berita ini mengenai para pejabat yang cengengesan diawal pandemi covid</t>
+          <t>persiiiisss</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'mohon', 'om', 'pemred', 'arsipkan', 'berita', 'ini', 'mengenai', 'para', 'pejabat', 'yang', 'cengengesan', 'diawal', 'pandemi', 'covid']</t>
+          <t>['persiiiisss']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['persiiiisss']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['mohon', 'om', 'pemred', 'arsipkan', 'berita', 'pejabat', 'cengengesan', 'diawal', 'pandemi', 'covid']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['mohon', 'om', 'pemred', 'arsip', 'berita', 'jabat', 'cengengesan', 'awal', 'pandemi', 'covid']</t>
+          <t>['persiiiisss']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['persiiiisss']</t>
         </is>
       </c>
     </row>
@@ -1147,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23818</v>
+        <v>24147</v>
       </c>
       <c r="C21" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tahun</t>
+          <t>buah ghosting jatuh tak jauh dari pohonnya</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['tahun']</t>
+          <t>['buah', 'ghosting', 'jatuh', 'tak', 'jauh', 'dari', 'pohonnya']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['buah', 'ghosting', 'jatuh', 'tak', 'jauh', 'dari', 'pohonnya']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buah', 'ghosting', 'jatuh', 'pohonnya']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['buah', 'ghosting', 'jatuh', 'pohon']</t>
         </is>
       </c>
     </row>
@@ -1183,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23819</v>
+        <v>24148</v>
       </c>
       <c r="C22" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ikan membusuk dimulai dari kepalanya</t>
+          <t>rt kekerasan yg terus terjadi terhadap buruh perempuan adalah hal yg tdk bisa terus kita data analisa atau sekedar jadi angk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['ikan', 'membusuk', 'dimulai', 'dari', 'kepalanya']</t>
+          <t>['rt', 'kekerasan', 'yg', 'terus', 'terjadi', 'terhadap', 'buruh', 'perempuan', 'adalah', 'hal', 'yg', 'tdk', 'bisa', 'terus', 'kita', 'data', 'analisa', 'atau', 'sekedar', 'jadi', 'angk']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'kekerasan', 'yang', 'terus', 'terjadi', 'terhadap', 'buruh', 'perempuan', 'adalah', 'hal', 'yang', 'tidak', 'bisa', 'terus', 'kita', 'data', 'analisa', 'atau', 'sekadar', 'jadi', 'angk']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['ikan', 'membusuk', 'kepalanya']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['ikan', 'busuk', 'kepala']</t>
+          <t>['kekerasan', 'buruh', 'perempuan', 'data', 'analisa', 'angk']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['keras', 'buruh', 'perempuan', 'data', 'analisa', 'angk']</t>
         </is>
       </c>
     </row>
@@ -1219,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23820</v>
+        <v>24149</v>
       </c>
       <c r="C23" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cocok</t>
+          <t>rt mereka bisa apa tanpa buruh ye gak bung</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['cocok']</t>
+          <t>['rt', 'mereka', 'bisa', 'apa', 'tanpa', 'buruh', 'ye', 'gak', 'bung']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'mereka', 'bisa', 'apa', 'tanpa', 'buruh', 'iya', 'tidak', 'bung']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['cocok']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['cocok']</t>
+          <t>['buruh', 'iya']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['buruh', 'iya']</t>
         </is>
       </c>
     </row>
@@ -1255,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23821</v>
+        <v>24150</v>
       </c>
       <c r="C24" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt kok aku ketawa ya baca ini kamerad</t>
+          <t>mu vs dirinya sendiri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'kok', 'aku', 'ketawa', 'ya', 'baca', 'ini', 'kamerad']</t>
+          <t>['mu', 'vs', 'dirinya', 'sendiri']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mu', 'lawan', 'dirinya', 'sendiri']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['ketawa', 'baca', 'kamerad']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['ketawa', 'baca', 'kamerad']</t>
+          <t>['mu', 'lawan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['mu', 'lawan']</t>
         </is>
       </c>
     </row>
@@ -1291,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23822</v>
+        <v>24151</v>
       </c>
       <c r="C25" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>mutiara kepemimpinan baru orang baik terperangkap menjadi korban</t>
+          <t xml:space="preserve">   kampret lu bong</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['mutiara', 'kepemimpinan', 'baru', 'orang', 'baik', 'terperangkap', 'menjadi', 'korban']</t>
+          <t>['kampret', 'lu', 'bong']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kampret', 'kamu', 'bong']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['mutiara', 'kepemimpinan', 'orang', 'terperangkap', 'korban']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['mutiara', 'pimpin', 'orang', 'perangkap', 'korban']</t>
+          <t>['kampret', 'bong']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kampret', 'bong']</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23823</v>
+        <v>24152</v>
       </c>
       <c r="C26" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>dan tahun kemudian masalah infrastruktur di medan tidak rampung</t>
+          <t>joko wildoko</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['dan', 'tahun', 'kemudian', 'masalah', 'infrastruktur', 'di', 'medan', 'tidak', 'rampung']</t>
+          <t>['joko', 'wildoko']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['joko', 'wildoko']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['infrastruktur', 'medan', 'rampung']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['infrastruktur', 'medan', 'rampung']</t>
+          <t>['joko', 'wildoko']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['joko', 'wildoko']</t>
         </is>
       </c>
     </row>
@@ -1363,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23824</v>
+        <v>24153</v>
       </c>
       <c r="C27" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt mohon penerawangan dari kamerad bilven</t>
+          <t>negara saja bisa diambil alih apalagi sekadar partai</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'mohon', 'penerawangan', 'dari', 'kamerad', 'bilven']</t>
+          <t>['negara', 'saja', 'bisa', 'diambil', 'alih', 'apalagi', 'sekadar', 'partai']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['negara', 'saja', 'bisa', 'diambil', 'alih', 'apalagi', 'sekadar', 'partai']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['mohon', 'penerawangan', 'kamerad', 'bilven']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['mohon', 'terawang', 'kamerad', 'bilven']</t>
+          <t>['negara', 'diambil', 'alih', 'partai']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['negara', 'ambil', 'alih', 'partai']</t>
         </is>
       </c>
     </row>
@@ -1399,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23825</v>
+        <v>24154</v>
       </c>
       <c r="C28" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sudah klir yaaa</t>
+          <t>kami jadi tahu apa yang bakal terjadi nanti</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['sudah', 'klir', 'yaaa']</t>
+          <t>['kami', 'jadi', 'tahu', 'apa', 'yang', 'bakal', 'terjadi', 'nanti']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kami', 'jadi', 'tahu', 'apa', 'yang', 'bakal', 'terjadi', 'nanti']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['klir', 'yaaa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['klir', 'yaaa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23826</v>
+        <v>24155</v>
       </c>
       <c r="C29" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>dari psi masih belum ada yg komen soal kasus nurdin abdullah kalau soal anies banyak</t>
+          <t>lho kenapa bukan joko widodo saja</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['dari', 'psi', 'masih', 'belum', 'ada', 'yg', 'komen', 'soal', 'kasus', 'nurdin', 'abdullah', 'kalau', 'soal', 'anies', 'banyak']</t>
+          <t>['lho', 'kenapa', 'bukan', 'joko', 'widodo', 'saja']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['lo', 'kenapa', 'bukan', 'joko', 'widodo', 'saja']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['psi', 'komen', 'nurdin', 'abdullah', 'anies']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['psi', 'komen', 'nurdin', 'abdullah', 'anies']</t>
+          <t>['lo', 'joko', 'widodo']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['lo', 'joko', 'widodo']</t>
         </is>
       </c>
     </row>
@@ -1471,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23827</v>
+        <v>24156</v>
       </c>
       <c r="C30" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>reformasi dikorupsi</t>
+          <t>tak ada sesuatu yang baru di bawah matahari</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['reformasi', 'dikorupsi']</t>
+          <t>['tak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['reformasi', 'dikorupsi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['reformasi', 'korupsi']</t>
+          <t>['matahari']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['matahari']</t>
         </is>
       </c>
     </row>
@@ -1507,34 +1669,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23828</v>
+        <v>24157</v>
       </c>
       <c r="C31" t="n">
-        <v>286</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">in cagub kita di sulsel pak nurdin abdullah tokoh anti korupsi nggak sabar lihat sulsel dibikin keren sama pak </t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['in', 'cagub', 'kita', 'di', 'sulsel', 'pak', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'nggak', 'sabar', 'lihat', 'sulsel', 'dibikin', 'keren', 'sama', 'pak']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['in', 'cagub', 'sulsel', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'nggak', 'sabar', 'lihat', 'sulsel', 'dibikin', 'keren']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['in', 'cagub', 'sulsel', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'nggak', 'sabar', 'lihat', 'sulsel', 'bikin', 'keren']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1543,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23829</v>
+        <v>24158</v>
       </c>
       <c r="C32" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt hahahahaha udah kaya pak presiden nikaragua nih lama bocah id hasilnya kebalikan</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'hahahahaha', 'udah', 'kaya', 'pak', 'presiden', 'nikaragua', 'nih', 'lama', 'bocah', 'id', 'hasilnya', 'kebalikan']</t>
+          <t>['clear']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['clear']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'udah', 'kaya', 'presiden', 'nikaragua', 'bocah', 'id', 'hasilnya', 'kebalikan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'udah', 'kaya', 'presiden', 'nikaragua', 'bocah', 'id', 'hasil', 'balik']</t>
+          <t>['clear']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['clear']</t>
         </is>
       </c>
     </row>
@@ -1579,34 +1747,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23830</v>
+        <v>24159</v>
       </c>
       <c r="C33" t="n">
-        <v>286</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>des feb</t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['des', 'feb']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['des', 'feb']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['des', 'feb']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1784,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23831</v>
+        <v>24160</v>
       </c>
       <c r="C34" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt tidak ada sesuatu yg baru di bawah matahari</t>
+          <t>ada baiknya memang polisi minta pendapat jaksa myanmar</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'tidak', 'ada', 'sesuatu', 'yg', 'baru', 'di', 'bawah', 'matahari']</t>
+          <t>['ada', 'baiknya', 'memang', 'polisi', 'minta', 'pendapat', 'jaksa', 'myanmar']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ada', 'baiknya', 'memang', 'polisi', 'meminta', 'pendapat', 'jaksa', 'myanmar']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['matahari']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['matahari']</t>
+          <t>['baiknya', 'polisi', 'pendapat', 'jaksa', 'myanmar']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['baik', 'polisi', 'dapat', 'jaksa', 'myanmar']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1825,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23832</v>
+        <v>24161</v>
       </c>
       <c r="C35" t="n">
-        <v>286</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>sep feb</t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['sep', 'feb']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['sep', 'feb']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['sep', 'feb']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1687,34 +1862,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23833</v>
+        <v>24162</v>
       </c>
       <c r="C36" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>terdepan urutan dari</t>
+          <t>tak sekeras hidup di bawah sepatu lars kolonialisme</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['terdepan', 'urutan', 'dari']</t>
+          <t>['tak', 'sekeras', 'hidup', 'di', 'bawah', 'sepatu', 'lars', 'kolonialisme']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tak', 'sekeras', 'hidup', 'di', 'bawah', 'sepatu', 'lars', 'kolonialisme']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['terdepan', 'urutan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['depan', 'urut']</t>
+          <t>['sekeras', 'hidup', 'sepatu', 'lars', 'kolonialisme']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['keras', 'hidup', 'sepatu', 'lars', 'kolonialisme']</t>
         </is>
       </c>
     </row>
@@ -1723,34 +1903,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23834</v>
+        <v>24163</v>
       </c>
       <c r="C37" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>polisi virtual itu semacam polisi tidur yang tidak kelihatan</t>
+          <t>rachma nyindir diri sendiri saya kira</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['polisi', 'virtual', 'itu', 'semacam', 'polisi', 'tidur', 'yang', 'tidak', 'kelihatan']</t>
+          <t>['rachma', 'nyindir', 'diri', 'sendiri', 'saya', 'kira']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['rachma', 'menyindir', 'diri', 'sendiri', 'saya', 'kira']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['polisi', 'virtual', 'polisi', 'tidur']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['polisi', 'virtual', 'polisi', 'tidur']</t>
+          <t>['rachma', 'menyindir']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['rachma', 'sindir']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1944,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23835</v>
+        <v>24164</v>
       </c>
       <c r="C38" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt jadi kangen drtirta marah kek begini lantang suara keras tegas ye gak bung and</t>
+          <t>myanmar di seberang lautan tampak papua di pelupuk mata tidak tampak</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'jadi', 'kangen', 'drtirta', 'marah', 'kek', 'begini', 'lantang', 'suara', 'keras', 'tegas', 'ye', 'gak', 'bung', 'and']</t>
+          <t>['myanmar', 'di', 'seberang', 'lautan', 'tampak', 'papua', 'di', 'pelupuk', 'mata', 'tidak', 'tampak']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['myanmar', 'di', 'seberang', 'lautan', 'tampak', 'papua', 'di', 'pelupuk', 'mata', 'tidak', 'tampak']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kangen', 'drtirta', 'marah', 'kek', 'lantang', 'suara', 'keras', 'ye', 'and']</t>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kangen', 'drtirta', 'marah', 'kek', 'lantang', 'suara', 'keras', 'ye', 'and']</t>
+          <t>['myanmar', 'seberang', 'lautan', 'papua', 'pelupuk', 'mata']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['myanmar', 'seberang', 'laut', 'papua', 'pelupuk', 'mata']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1985,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23836</v>
+        <v>24165</v>
       </c>
       <c r="C39" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>keinginan dan kenyataan acapkali berkebalikan</t>
+          <t>rt optimis periode</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['keinginan', 'dan', 'kenyataan', 'acapkali', 'berkebalikan']</t>
+          <t>['rt', 'optimis', 'periode']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'optimis', 'periode']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['kenyataan', 'acapkali', 'berkebalikan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['nyata', 'acapkali', 'balik']</t>
+          <t>['optimis', 'periode']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['optimis', 'periode']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2026,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23837</v>
+        <v>24166</v>
       </c>
       <c r="C40" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>sekadar mengingatkan</t>
+          <t>maret maret</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['sekadar', 'mengingatkan']</t>
+          <t>['maret', 'maret']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['maret', 'maret']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['maret', 'maret']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['maret', 'maret']</t>
         </is>
       </c>
     </row>
@@ -1867,34 +2067,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23838</v>
+        <v>24167</v>
       </c>
       <c r="C41" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt cek</t>
+          <t>kirain cari harun masiku</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'cek']</t>
+          <t>['kirain', 'cari', 'harun', 'masiku']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kiraan', 'cari', 'harun', 'masiku']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['cek']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['cek']</t>
+          <t>['kiraan', 'cari', 'harun', 'masiku']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kira', 'cari', 'harun', 'mas']</t>
         </is>
       </c>
     </row>
@@ -1903,34 +2108,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23839</v>
+        <v>24168</v>
       </c>
       <c r="C42" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>hari binatang buzzerp indonesia</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>['hari', 'binatang', 'buzzerp', 'indonesia']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['hari', 'binatang', 'buzzerp', 'indonesia']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>['binatang', 'buzzerp', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['binatang', 'buzzerp', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1939,34 +2149,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23840</v>
+        <v>24169</v>
       </c>
       <c r="C43" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>justru mereka berdua semua mesti belajar dari beliau ini</t>
+          <t>rt mohon om pemred arsipkan berita ini mengenai para pejabat yang cengengesan diawal pandemi covid</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['justru', 'mereka', 'berdua', 'semua', 'mesti', 'belajar', 'dari', 'beliau', 'ini']</t>
+          <t>['rt', 'mohon', 'om', 'pemred', 'arsipkan', 'berita', 'ini', 'mengenai', 'para', 'pejabat', 'yang', 'cengengesan', 'diawal', 'pandemi', 'covid']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'mohon', 'om', 'pemred', 'arsipkan', 'berita', 'ini', 'mengenai', 'para', 'pejabat', 'yang', 'cengengesan', 'di, awal', 'pandemi', 'covid']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['berdua', 'mesti', 'belajar', 'beliau']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['dua', 'mesti', 'ajar', 'beliau']</t>
+          <t>['mohon', 'om', 'pemred', 'arsipkan', 'berita', 'pejabat', 'cengengesan', 'di, awal', 'pandemi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['mohon', 'om', 'pemred', 'arsip', 'berita', 'jabat', 'cengengesan', 'di awal', 'pandemi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -1975,34 +2190,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23841</v>
+        <v>24170</v>
       </c>
       <c r="C44" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>saya kira karena disahkannya omnibus law</t>
+          <t>tahun</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['saya', 'kira', 'karena', 'disahkannya', 'omnibus', 'law']</t>
+          <t>['tahun']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tahun']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['disahkannya', 'omnibus', 'law']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['sah', 'omnibus', 'law']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2231,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23842</v>
+        <v>24171</v>
       </c>
       <c r="C45" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>saya sih masih berbahasa ibu kota yang baru bebas banjir dan macet dan berbahasa ibu kota yang macet dan banjir leb</t>
+          <t>ikan membusuk dimulai dari kepalanya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['saya', 'sih', 'masih', 'berbahasa', 'ibu', 'kota', 'yang', 'baru', 'bebas', 'banjir', 'dan', 'macet', 'dan', 'berbahasa', 'ibu', 'kota', 'yang', 'macet', 'dan', 'banjir', 'leb']</t>
+          <t>['ikan', 'membusuk', 'dimulai', 'dari', 'kepalanya']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 21 outcomes&gt;</t>
+          <t>['ikan', 'membusuk', 'dimulai', 'dari', 'kepalanya']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['berbahasa', 'kota', 'bebas', 'banjir', 'macet', 'berbahasa', 'kota', 'macet', 'banjir', 'leb']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['bahasa', 'kota', 'bebas', 'banjir', 'macet', 'bahasa', 'kota', 'macet', 'banjir', 'leb']</t>
+          <t>['ikan', 'membusuk', 'kepalanya']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['ikan', 'busuk', 'kepala']</t>
         </is>
       </c>
     </row>
@@ -2047,34 +2272,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23843</v>
+        <v>24172</v>
       </c>
       <c r="C46" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jokowi vs jokowi feb feb</t>
+          <t>cocok</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['jokowi', 'vs', 'jokowi', 'feb', 'feb']</t>
+          <t>['cocok']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 5 outcomes&gt;</t>
+          <t>['cocok']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['jokowi', 'vs', 'jokowi', 'feb', 'feb']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['jokowi', 'vs', 'jokowi', 'feb', 'feb']</t>
+          <t>['cocok']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['cocok']</t>
         </is>
       </c>
     </row>
@@ -2083,34 +2313,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23844</v>
+        <v>24173</v>
       </c>
       <c r="C47" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>sebetulnya memang untuk apa lagi merampas hp warga kalau sudah bisa merampas kebebasan dan demokrasi</t>
+          <t>rt kok aku ketawa ya baca ini kamerad</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sebetulnya', 'memang', 'untuk', 'apa', 'lagi', 'merampas', 'hp', 'warga', 'kalau', 'sudah', 'bisa', 'merampas', 'kebebasan', 'dan', 'demokrasi']</t>
+          <t>['rt', 'kok', 'aku', 'ketawa', 'ya', 'baca', 'ini', 'kamerad']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'kok', 'aku', 'tertawa', 'ya', 'baca', 'ini', 'kamerad']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['merampas', 'hp', 'warga', 'merampas', 'kebebasan', 'demokrasi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['rampas', 'hp', 'warga', 'rampas', 'bebas', 'demokrasi']</t>
+          <t>['tertawa', 'baca', 'kamerad']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['tertawa', 'baca', 'kamerad']</t>
         </is>
       </c>
     </row>
@@ -2119,34 +2354,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23845</v>
+        <v>24174</v>
       </c>
       <c r="C48" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>melayani melindungi mengayomi detik dan menghapus twit</t>
+          <t>mutiara kepemimpinan baru orang baik terperangkap menjadi korban</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['melayani', 'melindungi', 'mengayomi', 'detik', 'dan', 'menghapus', 'twit']</t>
+          <t>['mutiara', 'kepemimpinan', 'baru', 'orang', 'baik', 'terperangkap', 'menjadi', 'korban']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['mutiara', 'kepemimpinan', 'baru', 'orang', 'baik', 'terperangkap', 'menjadi', 'korban']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['melayani', 'melindungi', 'mengayomi', 'detik', 'menghapus', 'twit']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['layan', 'lindung', 'ayom', 'detik', 'hapus', 'twit']</t>
+          <t>['mutiara', 'kepemimpinan', 'orang', 'terperangkap', 'korban']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['mutiara', 'pimpin', 'orang', 'perangkap', 'korban']</t>
         </is>
       </c>
     </row>
@@ -2155,34 +2395,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23846</v>
+        <v>24175</v>
       </c>
       <c r="C49" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sekadar mengingatkan jokowi macet dan banjir lebih mudah diatasi jika jadi presiden klik untuk baca</t>
+          <t>dan tahun kemudian masalah infrastruktur di medan tidak rampung</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['sekadar', 'mengingatkan', 'jokowi', 'macet', 'dan', 'banjir', 'lebih', 'mudah', 'diatasi', 'jika', 'jadi', 'presiden', 'klik', 'untuk', 'baca']</t>
+          <t>['dan', 'tahun', 'kemudian', 'masalah', 'infrastruktur', 'di', 'medan', 'tidak', 'rampung']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'tahun', 'kemudian', 'masalah', 'infrastruktur', 'di', 'medan', 'tidak', 'rampung']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['jokowi', 'macet', 'banjir', 'mudah', 'diatasi', 'presiden', 'klik', 'baca']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['jokowi', 'macet', 'banjir', 'mudah', 'atas', 'presiden', 'klik', 'baca']</t>
+          <t>['infrastruktur', 'medan', 'rampung']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['infrastruktur', 'medan', 'rampung']</t>
         </is>
       </c>
     </row>
@@ -2191,34 +2436,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23847</v>
+        <v>24176</v>
       </c>
       <c r="C50" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>terpesonaaaa aku terpesonaaaaaaa pada detik</t>
+          <t>rt mohon penerawangan dari kamerad bilven</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['terpesonaaaa', 'aku', 'terpesonaaaaaaa', 'pada', 'detik']</t>
+          <t>['rt', 'mohon', 'penerawangan', 'dari', 'kamerad', 'bilven']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'mohon', 'penerawangan', 'dari', 'kamerad', 'bilven']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['terpesonaaaa', 'terpesonaaaaaaa', 'detik']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['terpesonaaaa', 'terpesonaaaaaaa', 'detik']</t>
+          <t>['mohon', 'penerawangan', 'kamerad', 'bilven']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['mohon', 'terawang', 'kamerad', 'bilven']</t>
         </is>
       </c>
     </row>
@@ -2227,34 +2477,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23848</v>
+        <v>24177</v>
       </c>
       <c r="C51" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sekadar mengingatkan</t>
+          <t>sudah klir yaaa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['sekadar', 'mengingatkan']</t>
+          <t>['sudah', 'klir', 'yaaa']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'klir', 'ya']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['klir']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['klir']</t>
         </is>
       </c>
     </row>
@@ -2263,34 +2518,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23849</v>
+        <v>24178</v>
       </c>
       <c r="C52" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt ori id coba bung ingatkan lagi sist satu ini sepertinya ada yang lupa</t>
+          <t>dari psi masih belum ada yg komen soal kasus nurdin abdullah kalau soal anies banyak</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'ori', 'id', 'coba', 'bung', 'ingatkan', 'lagi', 'sist', 'satu', 'ini', 'sepertinya', 'ada', 'yang', 'lupa']</t>
+          <t>['dari', 'psi', 'masih', 'belum', 'ada', 'yg', 'komen', 'soal', 'kasus', 'nurdin', 'abdullah', 'kalau', 'soal', 'anies', 'banyak']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['dari', 'psi', 'masih', 'belum', 'ada', 'yang', 'komen', 'soal', 'kasus', 'nurdin', 'abdullah', 'kalau', 'soal', 'anies', 'banyak']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['ori', 'id', 'coba', 'ingatkan', 'sist', 'lupa']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ori', 'id', 'coba', 'ingat', 'sist', 'lupa']</t>
+          <t>['psi', 'komen', 'nurdin', 'abdullah', 'anies']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['psi', 'komen', 'nurdin', 'abdullah', 'anies']</t>
         </is>
       </c>
     </row>
@@ -2299,34 +2559,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23850</v>
+        <v>24179</v>
       </c>
       <c r="C53" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt mohon diarsipkan kamerad</t>
+          <t>reformasi dikorupsi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'mohon', 'diarsipkan', 'kamerad']</t>
+          <t>['reformasi', 'dikorupsi']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['reformasi', 'dikorupsi']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['mohon', 'diarsipkan', 'kamerad']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mohon', 'arsip', 'kamerad']</t>
+          <t>['reformasi', 'dikorupsi']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['reformasi', 'korupsi']</t>
         </is>
       </c>
     </row>
@@ -2335,34 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23851</v>
+        <v>24180</v>
       </c>
       <c r="C54" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>tentu saja berlaku</t>
+          <t xml:space="preserve">in cagub kita di sulsel pak nurdin abdullah tokoh anti korupsi nggak sabar lihat sulsel dibikin keren sama pak </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['tentu', 'saja', 'berlaku']</t>
+          <t>['in', 'cagub', 'kita', 'di', 'sulsel', 'pak', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'nggak', 'sabar', 'lihat', 'sulsel', 'dibikin', 'keren', 'sama', 'pak']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['in', 'calon, gubernur', 'kita', 'di', 'sulawesi, selatan', 'pak', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'enggak', 'sabar', 'lihat', 'sulawesi, selatan', 'dibuat', 'keren', 'sama', 'pak']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['berlaku']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['laku']</t>
+          <t>['in', 'calon, gubernur', 'sulawesi, selatan', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'sabar', 'lihat', 'sulawesi, selatan', 'keren']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['in', 'calon gubernur', 'sulawesi selatan', 'nurdin', 'abdullah', 'tokoh', 'anti', 'korupsi', 'sabar', 'lihat', 'sulawesi selatan', 'keren']</t>
         </is>
       </c>
     </row>
@@ -2371,34 +2641,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23852</v>
+        <v>24181</v>
       </c>
       <c r="C55" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt id kita tunggu kehadiran mpu bilven untuk mensmackdown tweet ini</t>
+          <t>rt hahahahaha udah kaya pak presiden nikaragua nih lama bocah id hasilnya kebalikan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'kita', 'tunggu', 'kehadiran', 'mpu', 'bilven', 'untuk', 'mensmackdown', 'tweet', 'ini']</t>
+          <t>['rt', 'hahahahaha', 'udah', 'kaya', 'pak', 'presiden', 'nikaragua', 'nih', 'lama', 'bocah', 'id', 'hasilnya', 'kebalikan']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'haha', 'sudah', 'kayak', 'pak', 'presiden', 'nikaragua', 'nih', 'lama', 'bocah', 'id', 'hasilnya', 'kebalikan']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['id', 'tunggu', 'kehadiran', 'mpu', 'bilven', 'mensmackdown', 'tweet']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['id', 'tunggu', 'hadir', 'mpu', 'bilven', 'mensmackdown', 'tweet']</t>
+          <t>['haha', 'kayak', 'presiden', 'nikaragua', 'bocah', 'id', 'hasilnya', 'kebalikan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['haha', 'kayak', 'presiden', 'nikaragua', 'bocah', 'id', 'hasil', 'balik']</t>
         </is>
       </c>
     </row>
@@ -2407,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23853</v>
+        <v>24182</v>
       </c>
       <c r="C56" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt ingin ketawa tapi takut dilaporin psi bung</t>
+          <t>des feb</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'ingin', 'ketawa', 'tapi', 'takut', 'dilaporin', 'psi', 'bung']</t>
+          <t>['des', 'feb']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['desember', 'februari']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['ketawa', 'takut', 'dilaporin', 'psi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['ketawa', 'takut', 'dilaporin', 'psi']</t>
+          <t>['desember', 'februari']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['desember', 'februari']</t>
         </is>
       </c>
     </row>
@@ -2443,34 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23854</v>
+        <v>24183</v>
       </c>
       <c r="C57" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt gua mah nunggu jawab aja udah cukup</t>
+          <t>rt tidak ada sesuatu yg baru di bawah matahari</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'gua', 'mah', 'nunggu', 'jawab', 'aja', 'udah', 'cukup']</t>
+          <t>['rt', 'tidak', 'ada', 'sesuatu', 'yg', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['gua', 'mah', 'nunggu', 'udah']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['gua', 'mah', 'nunggu', 'udah']</t>
+          <t>['matahari']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['matahari']</t>
         </is>
       </c>
     </row>
@@ -2479,30 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23855</v>
+        <v>24184</v>
       </c>
       <c r="C58" t="n">
-        <v>286</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>290</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sep feb</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sep', 'feb']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['sep', 'februari']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sep', 'februari']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['sep', 'februari']</t>
         </is>
       </c>
     </row>
@@ -2511,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23856</v>
+        <v>24185</v>
       </c>
       <c r="C59" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt rkbr twit blunder setahun yg lalu guys arsipkan min</t>
+          <t>terdepan urutan dari</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'rkbr', 'twit', 'blunder', 'setahun', 'yg', 'lalu', 'guys', 'arsipkan', 'min']</t>
+          <t>['terdepan', 'urutan', 'dari']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['terdepan', 'urutan', 'dari']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['rkbr', 'twit', 'blunder', 'setahun', 'guys', 'arsipkan', 'min']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['rkbr', 'twit', 'blunder', 'tahun', 'guys', 'arsip', 'min']</t>
+          <t>['terdepan', 'urutan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['depan', 'urut']</t>
         </is>
       </c>
     </row>
@@ -2547,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23857</v>
+        <v>24186</v>
       </c>
       <c r="C60" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt aksi kamisan kediri mari besok malam wib kita ngobrol santai via ig soal ketakutan kebebasan berpendapa</t>
+          <t>polisi virtual itu semacam polisi tidur yang tidak kelihatan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'aksi', 'kamisan', 'kediri', 'mari', 'besok', 'malam', 'wib', 'kita', 'ngobrol', 'santai', 'via', 'ig', 'soal', 'ketakutan', 'kebebasan', 'berpendapa']</t>
+          <t>['polisi', 'virtual', 'itu', 'semacam', 'polisi', 'tidur', 'yang', 'tidak', 'kelihatan']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['polisi', 'virtual', 'itu', 'semacam', 'polisi', 'tidur', 'yang', 'tidak', 'kelihatan']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['aksi', 'kamisan', 'kediri', 'mari', 'besok', 'malam', 'wib', 'ngobrol', 'santai', 'via', 'ig', 'ketakutan', 'kebebasan', 'berpendapa']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['aksi', 'kamis', 'diri', 'mari', 'besok', 'malam', 'wib', 'ngobrol', 'santai', 'via', 'ig', 'takut', 'bebas', 'pendapa']</t>
+          <t>['polisi', 'virtual', 'polisi', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['polisi', 'virtual', 'polisi', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -2583,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23858</v>
+        <v>24187</v>
       </c>
       <c r="C61" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>tidak ada sesuatu yang baru di bawah matahari</t>
+          <t>rt jadi kangen drtirta marah kek begini lantang suara keras tegas ye gak bung and</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['tidak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
+          <t>['rt', 'jadi', 'kangen', 'drtirta', 'marah', 'kek', 'begini', 'lantang', 'suara', 'keras', 'tegas', 'ye', 'gak', 'bung', 'and']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'jadi', 'kangen', 'drtirta', 'marah', 'kayak', 'begini', 'lantang', 'suara', 'keras', 'tegas', 'iya', 'tidak', 'bung', 'and']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['matahari']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['matahari']</t>
+          <t>['kangen', 'drtirta', 'marah', 'kayak', 'lantang', 'suara', 'keras', 'iya', 'and']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kangen', 'drtirta', 'marah', 'kayak', 'lantang', 'suara', 'keras', 'iya', 'and']</t>
         </is>
       </c>
     </row>
@@ -2619,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23859</v>
+        <v>24188</v>
       </c>
       <c r="C62" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sampai sekarang belum ada tandatanda berfoto di goronggorong ibukota baru</t>
+          <t>keinginan dan kenyataan acapkali berkebalikan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['sampai', 'sekarang', 'belum', 'ada', 'tandatanda', 'berfoto', 'di', 'goronggorong', 'ibukota', 'baru']</t>
+          <t>['keinginan', 'dan', 'kenyataan', 'acapkali', 'berkebalikan']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['keinginan', 'dan', 'kenyataan', 'acapkali', 'berkebalikan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['tandatanda', 'berfoto', 'goronggorong', 'ibukota']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['tandatanda', 'foto', 'goronggorong', 'ibukota']</t>
+          <t>['kenyataan', 'acapkali', 'berkebalikan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['nyata', 'acapkali', 'balik']</t>
         </is>
       </c>
     </row>
@@ -2655,34 +2969,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23860</v>
+        <v>24189</v>
       </c>
       <c r="C63" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt nah kan bener lagi omongannya</t>
+          <t>sekadar mengingatkan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'nah', 'kan', 'bener', 'lagi', 'omongannya']</t>
+          <t>['sekadar', 'mengingatkan']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sekadar', 'mengingatkan']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['bener', 'omongannya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['bener', 'omong']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2691,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23861</v>
+        <v>24190</v>
       </c>
       <c r="C64" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt haye sampeyan kurang nyimak fatwa bung bahwa apapun yang disampaikan jokowi yang dikerjakan pasti sebal</t>
+          <t>rt cek</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'haye', 'sampeyan', 'kurang', 'nyimak', 'fatwa', 'bung', 'bahwa', 'apapun', 'yang', 'disampaikan', 'jokowi', 'yang', 'dikerjakan', 'pasti', 'sebal']</t>
+          <t>['rt', 'cek']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'cek']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['haye', 'sampeyan', 'nyimak', 'fatwa', 'apapun', 'jokowi', 'sebal']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['haye', 'sampeyan', 'nyimak', 'fatwa', 'apa', 'jokowi', 'sebal']</t>
+          <t>['cek']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['cek']</t>
         </is>
       </c>
     </row>
@@ -2727,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23862</v>
+        <v>24191</v>
       </c>
       <c r="C65" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>coba diulangi ya biar nggak diketawain</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['coba', 'diulangi', 'ya', 'biar', 'nggak', 'diketawain']</t>
+          <t>['clear']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['clear']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['coba', 'diulangi', 'nggak', 'diketawain']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['coba', 'ulang', 'nggak', 'diketawain']</t>
+          <t>['clear']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['clear']</t>
         </is>
       </c>
     </row>
@@ -2763,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23863</v>
+        <v>24192</v>
       </c>
       <c r="C66" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt tolong diarsipkan kamerad</t>
+          <t>justru mereka berdua semua mesti belajar dari beliau ini</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'tolong', 'diarsipkan', 'kamerad']</t>
+          <t>['justru', 'mereka', 'berdua', 'semua', 'mesti', 'belajar', 'dari', 'beliau', 'ini']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['justru', 'mereka', 'berdua', 'semua', 'mesti', 'belajar', 'dari', 'beliau', 'ini']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['tolong', 'diarsipkan', 'kamerad']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['tolong', 'arsip', 'kamerad']</t>
+          <t>['berdua', 'mesti', 'belajar', 'beliau']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['dua', 'mesti', 'ajar', 'beliau']</t>
         </is>
       </c>
     </row>
@@ -2799,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23864</v>
+        <v>24193</v>
       </c>
       <c r="C67" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt bwang mohon  arsipkan dan  trawang kedepan artinya apaaa</t>
+          <t>saya kira karena disahkannya omnibus law</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'bwang', 'mohon', 'arsipkan', 'dan', 'trawang', 'kedepan', 'artinya', 'apaaa']</t>
+          <t>['saya', 'kira', 'karena', 'disahkannya', 'omnibus', 'law']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['saya', 'kira', 'karena', 'disahkannya', 'omnibus', 'law']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['bwang', 'mohon', 'arsipkan', 'trawang', 'kedepan', 'apaaa']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['bwang', 'mohon', 'arsip', 'trawang', 'depan', 'apaaa']</t>
+          <t>['disahkannya', 'omnibus', 'law']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['sah', 'omnibus', 'law']</t>
         </is>
       </c>
     </row>
@@ -2835,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23865</v>
+        <v>24194</v>
       </c>
       <c r="C68" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt gak mau comment dlu sebelum lihat isinya karena seperti sabda dan ujungnya selalu kebalikan</t>
+          <t>saya sih masih berbahasa ibu kota yang baru bebas banjir dan macet dan berbahasa ibu kota yang macet dan banjir leb</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'gak', 'mau', 'comment', 'dlu', 'sebelum', 'lihat', 'isinya', 'karena', 'seperti', 'sabda', 'dan', 'ujungnya', 'selalu', 'kebalikan']</t>
+          <t>['saya', 'sih', 'masih', 'berbahasa', 'ibu', 'kota', 'yang', 'baru', 'bebas', 'banjir', 'dan', 'macet', 'dan', 'berbahasa', 'ibu', 'kota', 'yang', 'macet', 'dan', 'banjir', 'leb']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['saya', 'sih', 'masih', 'berbahasa', 'ibu', 'kota', 'yang', 'baru', 'bebas', 'banjir', 'dan', 'macet', 'dan', 'berbahasa', 'ibu', 'kota', 'yang', 'macet', 'dan', 'banjir', 'leb']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['comment', 'dlu', 'lihat', 'isinya', 'sabda', 'ujungnya', 'kebalikan']</t>
+          <t>&lt;FreqDist with 13 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['comment', 'dlu', 'lihat', 'isi', 'sabda', 'ujung', 'balik']</t>
+          <t>['berbahasa', 'kota', 'bebas', 'banjir', 'macet', 'berbahasa', 'kota', 'macet', 'banjir', 'leb']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['bahasa', 'kota', 'bebas', 'banjir', 'macet', 'bahasa', 'kota', 'macet', 'banjir', 'leb']</t>
         </is>
       </c>
     </row>
@@ -2871,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23866</v>
+        <v>24195</v>
       </c>
       <c r="C69" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt pwk klo gini gmn prediksi bung revisi atau prinsip keadilan yg akan di mirroring heuheu</t>
+          <t>jokowi vs jokowi feb feb</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'pwk', 'klo', 'gini', 'gmn', 'prediksi', 'bung', 'revisi', 'atau', 'prinsip', 'keadilan', 'yg', 'akan', 'di', 'mirroring', 'heuheu']</t>
+          <t>['jokowi', 'vs', 'jokowi', 'feb', 'feb']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['jokowi', 'lawan', 'jokowi', 'februari', 'februari']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['pwk', 'gini', 'gmn', 'prediksi', 'revisi', 'prinsip', 'keadilan', 'mirroring', 'heuheu']</t>
+          <t>&lt;FreqDist with 3 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['pwk', 'gin', 'gmn', 'prediksi', 'revisi', 'prinsip', 'adil', 'mirroring', 'heuheu']</t>
+          <t>['jokowi', 'lawan', 'jokowi', 'februari', 'februari']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['jokowi', 'lawan', 'jokowi', 'februari', 'februari']</t>
         </is>
       </c>
     </row>
@@ -2907,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23867</v>
+        <v>24196</v>
       </c>
       <c r="C70" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt tambahin bray</t>
+          <t>sebetulnya memang untuk apa lagi merampas hp warga kalau sudah bisa merampas kebebasan dan demokrasi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'tambahin', 'bray']</t>
+          <t>['sebetulnya', 'memang', 'untuk', 'apa', 'lagi', 'merampas', 'hp', 'warga', 'kalau', 'sudah', 'bisa', 'merampas', 'kebebasan', 'dan', 'demokrasi']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sebenarnya', 'memang', 'untuk', 'apa', 'lagi', 'merampas', 'handphone', 'warga', 'kalau', 'sudah', 'bisa', 'merampas', 'kebebasan', 'dan', 'demokrasi']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['tambahin', 'bray']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['tambahin', 'bray']</t>
+          <t>['merampas', 'handphone', 'warga', 'merampas', 'kebebasan', 'demokrasi']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['rampas', 'handphone', 'warga', 'rampas', 'bebas', 'demokrasi']</t>
         </is>
       </c>
     </row>
@@ -2943,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23868</v>
+        <v>24197</v>
       </c>
       <c r="C71" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt kalau dijabarkan menggunakan teorinya bung berarti agustus masih belum terbebas dari corona</t>
+          <t>melayani melindungi mengayomi detik dan menghapus twit</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'dijabarkan', 'menggunakan', 'teorinya', 'bung', 'berarti', 'agustus', 'masih', 'belum', 'terbebas', 'dari', 'corona']</t>
+          <t>['melayani', 'melindungi', 'mengayomi', 'detik', 'dan', 'menghapus', 'twit']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['melayani', 'melindungi', 'mengayomi', 'detik', 'dan', 'menghapus', 'twit']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['dijabarkan', 'teorinya', 'agustus', 'terbebas', 'corona']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['jabar', 'teori', 'agustus', 'bebas', 'corona']</t>
+          <t>['melayani', 'melindungi', 'mengayomi', 'detik', 'menghapus', 'twit']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['layan', 'lindung', 'ayom', 'detik', 'hapus', 'twit']</t>
         </is>
       </c>
     </row>
@@ -2979,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23869</v>
+        <v>24198</v>
       </c>
       <c r="C72" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt ilmu klenik giriroto boyolali</t>
+          <t>sekadar mengingatkan jokowi macet dan banjir lebih mudah diatasi jika jadi presiden klik untuk baca</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'ilmu', 'klenik', 'giriroto', 'boyolali']</t>
+          <t>['sekadar', 'mengingatkan', 'jokowi', 'macet', 'dan', 'banjir', 'lebih', 'mudah', 'diatasi', 'jika', 'jadi', 'presiden', 'klik', 'untuk', 'baca']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sekadar', 'mengingatkan', 'jokowi', 'macet', 'dan', 'banjir', 'lebih', 'mudah', 'diatasi', 'jika', 'jadi', 'presiden', 'klik', 'untuk', 'baca']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['ilmu', 'klenik', 'giriroto', 'boyolali']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['ilmu', 'klenik', 'giriroto', 'boyolali']</t>
+          <t>['jokowi', 'macet', 'banjir', 'mudah', 'diatasi', 'presiden', 'klik', 'baca']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['jokowi', 'macet', 'banjir', 'mudah', 'atas', 'presiden', 'klik', 'baca']</t>
         </is>
       </c>
     </row>
@@ -3015,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23870</v>
+        <v>24199</v>
       </c>
       <c r="C73" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt tanggapannya</t>
+          <t>terpesonaaaa aku terpesonaaaaaaa pada detik</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'tanggapannya']</t>
+          <t>['terpesonaaaa', 'aku', 'terpesonaaaaaaa', 'pada', 'detik']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['terpesonaaaa', 'aku', 'terpesonaaaaaaa', 'pada', 'detik']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['tanggapannya']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['tanggap']</t>
+          <t>['terpesonaaaa', 'terpesonaaaaaaa', 'detik']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['terpesonaaaa', 'terpesonaaaaaaa', 'detik']</t>
         </is>
       </c>
     </row>
@@ -3051,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23871</v>
+        <v>24200</v>
       </c>
       <c r="C74" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt tanyain aja sama kalo pak joko kasih statement rakyat wajib percaya kebalikan dari statement tsb itu rumus</t>
+          <t>sekadar mengingatkan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'tanyain', 'aja', 'sama', 'kalo', 'pak', 'joko', 'kasih', 'statement', 'rakyat', 'wajib', 'percaya', 'kebalikan', 'dari', 'statement', 'tsb', 'itu', 'rumus']</t>
+          <t>['sekadar', 'mengingatkan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['sekadar', 'mengingatkan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['tanyain', 'joko', 'kasih', 'statement', 'rakyat', 'wajib', 'percaya', 'kebalikan', 'statement', 'tsb', 'rumus']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['tanyain', 'joko', 'kasih', 'statement', 'rakyat', 'wajib', 'percaya', 'balik', 'statement', 'tsb', 'rumus']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3087,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23872</v>
+        <v>24201</v>
       </c>
       <c r="C75" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt jkt mungkin atau netijen budiman bisa keluarkan koleksi screenshot pernyataan pak presiden soal  tapi hasiln</t>
+          <t>rt ori id coba bung ingatkan lagi sist satu ini sepertinya ada yang lupa</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'jkt', 'mungkin', 'atau', 'netijen', 'budiman', 'bisa', 'keluarkan', 'koleksi', 'screenshot', 'pernyataan', 'pak', 'presiden', 'soal', 'tapi', 'hasiln']</t>
+          <t>['rt', 'ori', 'id', 'coba', 'bung', 'ingatkan', 'lagi', 'sist', 'satu', 'ini', 'sepertinya', 'ada', 'yang', 'lupa']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'orisinal', 'id', 'coba', 'bung', 'ingatkan', 'lagi', 'sist', 'satu', 'ini', 'sepertinya', 'ada', 'yang', 'lupa']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['jkt', 'netijen', 'budiman', 'keluarkan', 'koleksi', 'screenshot', 'pernyataan', 'presiden', 'hasiln']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['jkt', 'netijen', 'budiman', 'keluar', 'koleksi', 'screenshot', 'nyata', 'presiden', 'hasiln']</t>
+          <t>['orisinal', 'id', 'coba', 'ingatkan', 'sist', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['orisinal', 'id', 'coba', 'ingat', 'sist', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -3123,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23873</v>
+        <v>24202</v>
       </c>
       <c r="C76" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt ini bacanya gmn bung kebalikannya apa tambah parah</t>
+          <t>rt mohon diarsipkan kamerad</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'bacanya', 'gmn', 'bung', 'kebalikannya', 'apa', 'tambah', 'parah']</t>
+          <t>['rt', 'mohon', 'diarsipkan', 'kamerad']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'mohon', 'diarsipkan', 'kamerad']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['bacanya', 'gmn', 'kebalikannya', 'parah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['baca', 'gmn', 'balik', 'parah']</t>
+          <t>['mohon', 'diarsipkan', 'kamerad']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['mohon', 'arsip', 'kamerad']</t>
         </is>
       </c>
     </row>
@@ -3159,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23874</v>
+        <v>24203</v>
       </c>
       <c r="C77" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt perasaan gak enak nih karena selama ini apa yg diomongin selalu terbalik dengan apa yg kejadian cc</t>
+          <t>tentu saja berlaku</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'perasaan', 'gak', 'enak', 'nih', 'karena', 'selama', 'ini', 'apa', 'yg', 'diomongin', 'selalu', 'terbalik', 'dengan', 'apa', 'yg', 'kejadian', 'cc']</t>
+          <t>['tentu', 'saja', 'berlaku']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['tentu', 'saja', 'berlaku']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['perasaan', 'enak', 'diomongin', 'terbalik', 'kejadian', 'cc']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['asa', 'enak', 'diomongin', 'balik', 'jadi', 'cc']</t>
+          <t>['berlaku']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['laku']</t>
         </is>
       </c>
     </row>
@@ -3195,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23875</v>
+        <v>24204</v>
       </c>
       <c r="C78" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt arsipkan dulu kamerad</t>
+          <t>rt id kita tunggu kehadiran mpu bilven untuk mensmackdown tweet ini</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'arsipkan', 'dulu', 'kamerad']</t>
+          <t>['rt', 'id', 'kita', 'tunggu', 'kehadiran', 'mpu', 'bilven', 'untuk', 'mensmackdown', 'tweet', 'ini']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'id', 'kita', 'tunggu', 'kehadiran', 'empu', 'bilven', 'untuk', 'mensmackdown', 'twit', 'ini']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['arsipkan', 'kamerad']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['arsip', 'kamerad']</t>
+          <t>['id', 'tunggu', 'kehadiran', 'empu', 'bilven', 'mensmackdown', 'twit']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['id', 'tunggu', 'hadir', 'empu', 'bilven', 'mensmackdown', 'twit']</t>
         </is>
       </c>
     </row>
@@ -3231,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23876</v>
+        <v>24205</v>
       </c>
       <c r="C79" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt siringo sudah tahun masuk prolegnas di dpr ri tp belum disahkan perjuangan ats ruu ini terus berja</t>
+          <t>rt ingin ketawa tapi takut dilaporin psi bung</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'siringo', 'sudah', 'tahun', 'masuk', 'prolegnas', 'di', 'dpr', 'ri', 'tp', 'belum', 'disahkan', 'perjuangan', 'ats', 'ruu', 'ini', 'terus', 'berja']</t>
+          <t>['rt', 'ingin', 'ketawa', 'tapi', 'takut', 'dilaporin', 'psi', 'bung']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ingin', 'tertawa', 'tapi', 'takut', 'dilaporkan', 'psi', 'bung']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['siringo', 'masuk', 'prolegnas', 'dpr', 'ri', 'tp', 'disahkan', 'perjuangan', 'ats', 'ruu', 'berja']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['siringo', 'masuk', 'prolegnas', 'dpr', 'ri', 'tp', 'sah', 'juang', 'ats', 'ruu', 'berja']</t>
+          <t>['tertawa', 'takut', 'dilaporkan', 'psi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tertawa', 'takut', 'lapor', 'psi']</t>
         </is>
       </c>
     </row>
@@ -3267,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23877</v>
+        <v>24206</v>
       </c>
       <c r="C80" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bukan krn kita underestimate sm pemerintah tp track recordnya yg membuktikan sebaliknya hanya </t>
+          <t>rt gua mah nunggu jawab aja udah cukup</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'bukan', 'krn', 'kita', 'underestimate', 'sm', 'pemerintah', 'tp', 'track', 'recordnya', 'yg', 'membuktikan', 'sebaliknya', 'hanya']</t>
+          <t>['rt', 'gua', 'mah', 'nunggu', 'jawab', 'aja', 'udah', 'cukup']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'gue', 'adalah', 'menunggu', 'jawab', 'saja', 'sudah', 'cukup']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['underestimate', 'sm', 'pemerintah', 'tp', 'track', 'recordnya', 'membuktikan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['underestimate', 'sm', 'perintah', 'tp', 'track', 'recordnya', 'bukti']</t>
+          <t>['gue', 'menunggu']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['gue', 'tunggu']</t>
         </is>
       </c>
     </row>
@@ -3303,32 +3707,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23878</v>
+        <v>24207</v>
       </c>
       <c r="C81" t="n">
-        <v>286</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>rt</t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3339,34 +3744,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23879</v>
+        <v>24208</v>
       </c>
       <c r="C82" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt laksono gsp</t>
+          <t>rt rkbr twit blunder setahun yg lalu guys arsipkan min</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'laksono', 'gsp']</t>
+          <t>['rt', 'rkbr', 'twit', 'blunder', 'setahun', 'yg', 'lalu', 'guys', 'arsipkan', 'min']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'rkbr', 'twit', 'blunder', 'setahun', 'yang', 'lalu', 'guys', 'arsipkan', 'min']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['laksono', 'gsp']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['laksono', 'gsp']</t>
+          <t>['rkbr', 'twit', 'blunder', 'setahun', 'guys', 'arsipkan', 'min']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['rkbr', 'twit', 'blunder', 'tahun', 'guys', 'arsip', 'min']</t>
         </is>
       </c>
     </row>
@@ -3375,34 +3785,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23880</v>
+        <v>24209</v>
       </c>
       <c r="C83" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt aman unni semua udah di arsipkan ama</t>
+          <t>rt aksi kamisan kediri mari besok malam wib kita ngobrol santai via ig soal ketakutan kebebasan berpendapa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'aman', 'unni', 'semua', 'udah', 'di', 'arsipkan', 'ama']</t>
+          <t>['rt', 'aksi', 'kamisan', 'kediri', 'mari', 'besok', 'malam', 'wib', 'kita', 'ngobrol', 'santai', 'via', 'ig', 'soal', 'ketakutan', 'kebebasan', 'berpendapa']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'aksi', 'kamisan', 'kediri', 'mari', 'besok', 'malam', 'waktu, indonesia, bagian, barat', 'kita', 'mengobrol', 'santai', 'via', 'instagram', 'soal', 'ketakutan', 'kebebasan', 'berpendapa']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['aman', 'unni', 'udah', 'arsipkan', 'ama']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['aman', 'unni', 'udah', 'arsip', 'ama']</t>
+          <t>['aksi', 'kamisan', 'kediri', 'mari', 'besok', 'malam', 'waktu, indonesia, bagian, barat', 'mengobrol', 'santai', 'via', 'instagram', 'ketakutan', 'kebebasan', 'berpendapa']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['aksi', 'kamis', 'diri', 'mari', 'besok', 'malam', 'waktu indonesia bagi barat', 'obrol', 'santai', 'via', 'instagram', 'takut', 'bebas', 'pendapa']</t>
         </is>
       </c>
     </row>
@@ -3411,34 +3826,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23881</v>
+        <v>24210</v>
       </c>
       <c r="C84" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt juga tolong diarsipin komrad</t>
+          <t>tidak ada sesuatu yang baru di bawah matahari</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'juga', 'tolong', 'diarsipin', 'komrad']</t>
+          <t>['tidak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'sesuatu', 'yang', 'baru', 'di', 'bawah', 'matahari']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['tolong', 'diarsipin', 'komrad']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tolong', 'diarsipin', 'komrad']</t>
+          <t>['matahari']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['matahari']</t>
         </is>
       </c>
     </row>
@@ -3447,34 +3867,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23882</v>
+        <v>24211</v>
       </c>
       <c r="C85" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>sekadar mengingatkan</t>
+          <t>sampai sekarang belum ada tandatanda berfoto di goronggorong ibukota baru</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['sekadar', 'mengingatkan']</t>
+          <t>['sampai', 'sekarang', 'belum', 'ada', 'tandatanda', 'berfoto', 'di', 'goronggorong', 'ibukota', 'baru']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sampai', 'sekarang', 'belum', 'ada', 'tandatanda', 'berfoto', 'di', 'goronggorong', 'ibu, kota', 'baru']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tandatanda', 'berfoto', 'goronggorong', 'ibu, kota']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['tandatanda', 'foto', 'goronggorong', 'ibu kota']</t>
         </is>
       </c>
     </row>
@@ -3483,34 +3908,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23883</v>
+        <v>24212</v>
       </c>
       <c r="C86" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>golput</t>
+          <t>rt nah kan bener lagi omongannya</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['golput']</t>
+          <t>['rt', 'nah', 'kan', 'bener', 'lagi', 'omongannya']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'nah', 'kan', 'benar', 'lagi', 'omongannya']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['golput']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['golput']</t>
+          <t>['omongannya']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['omong']</t>
         </is>
       </c>
     </row>
@@ -3519,34 +3949,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23884</v>
+        <v>24213</v>
       </c>
       <c r="C87" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>perserikatan sepakbola bandarbola liverpool disingkat psbl</t>
+          <t>rt haye sampeyan kurang nyimak fatwa bung bahwa apapun yang disampaikan jokowi yang dikerjakan pasti sebal</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['perserikatan', 'sepakbola', 'bandarbola', 'liverpool', 'disingkat', 'psbl']</t>
+          <t>['rt', 'haye', 'sampeyan', 'kurang', 'nyimak', 'fatwa', 'bung', 'bahwa', 'apapun', 'yang', 'disampaikan', 'jokowi', 'yang', 'dikerjakan', 'pasti', 'sebal']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'haye', 'anda', 'kurang', 'menyimak', 'fatwa', 'bung', 'bahwa', 'apapun', 'yang', 'disampaikan', 'jokowi', 'yang', 'dikerjakan', 'pasti', 'sebal']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['perserikatan', 'sepakbola', 'bandarbola', 'liverpool', 'disingkat', 'psbl']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['serikat', 'sepakbola', 'bandarbola', 'liverpool', 'singkat', 'psbl']</t>
+          <t>['haye', 'menyimak', 'fatwa', 'apapun', 'jokowi', 'sebal']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['haye', 'simak', 'fatwa', 'apa', 'jokowi', 'sebal']</t>
         </is>
       </c>
     </row>
@@ -3555,34 +3990,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23885</v>
+        <v>24214</v>
       </c>
       <c r="C88" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>sebetulnya liverpool ini bisa main bola tidak</t>
+          <t>coba diulangi ya biar nggak diketawain</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['sebetulnya', 'liverpool', 'ini', 'bisa', 'main', 'bola', 'tidak']</t>
+          <t>['coba', 'diulangi', 'ya', 'biar', 'nggak', 'diketawain']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['coba', 'diulangi', 'ya', 'biar', 'enggak', 'diketawain']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['liverpool', 'main', 'bola']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['liverpool', 'main', 'bola']</t>
+          <t>['coba', 'diulangi', 'diketawain']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['coba', 'ulang', 'diketawain']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4031,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23886</v>
+        <v>24215</v>
       </c>
       <c r="C89" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>sebetulnya bnpb itu badan nasional penanggulangan bencana atau badan nasional penanaman modal bukankah bencana ya</t>
+          <t>rt tolong diarsipkan kamerad</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['sebetulnya', 'bnpb', 'itu', 'badan', 'nasional', 'penanggulangan', 'bencana', 'atau', 'badan', 'nasional', 'penanaman', 'modal', 'bukankah', 'bencana', 'ya']</t>
+          <t>['rt', 'tolong', 'diarsipkan', 'kamerad']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'tolong', 'diarsipkan', 'kamerad']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['bnpb', 'badan', 'nasional', 'penanggulangan', 'bencana', 'badan', 'nasional', 'penanaman', 'modal', 'bencana']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['bnpb', 'badan', 'nasional', 'tanggulang', 'bencana', 'badan', 'nasional', 'tanam', 'modal', 'bencana']</t>
+          <t>['tolong', 'diarsipkan', 'kamerad']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['tolong', 'arsip', 'kamerad']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4072,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23887</v>
+        <v>24216</v>
       </c>
       <c r="C90" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">justru pengalaman bulan ini mengajarkan pada kita bahwa dalam menghadapi pandemi ada formula yang standar yang </t>
+          <t>rt bwang mohon  arsipkan dan  trawang kedepan artinya apaaa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['justru', 'pengalaman', 'bulan', 'ini', 'mengajarkan', 'pada', 'kita', 'bahwa', 'dalam', 'menghadapi', 'pandemi', 'ada', 'formula', 'yang', 'standar', 'yang']</t>
+          <t>['rt', 'bwang', 'mohon', 'arsipkan', 'dan', 'trawang', 'kedepan', 'artinya', 'apaaa']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'bawang', 'mohon', 'arsipkan', 'dan', 'trawang', 'ke, depan', 'artinya', 'apa']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['pengalaman', 'mengajarkan', 'menghadapi', 'pandemi', 'formula', 'standar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['alam', 'ajar', 'hadap', 'pandemi', 'formula', 'standar']</t>
+          <t>['bawang', 'mohon', 'arsipkan', 'trawang', 'ke, depan']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['bawang', 'mohon', 'arsip', 'trawang', 'ke depan']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4113,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23888</v>
+        <v>24217</v>
       </c>
       <c r="C91" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jadi sudah clear ya</t>
+          <t>rt gak mau comment dlu sebelum lihat isinya karena seperti sabda dan ujungnya selalu kebalikan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['jadi', 'sudah', 'clear', 'ya']</t>
+          <t>['rt', 'gak', 'mau', 'comment', 'dlu', 'sebelum', 'lihat', 'isinya', 'karena', 'seperti', 'sabda', 'dan', 'ujungnya', 'selalu', 'kebalikan']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'mau', 'komen', 'dulu', 'sebelum', 'lihat', 'isinya', 'karena', 'seperti', 'sabda', 'dan', 'ujungnya', 'selalu', 'kebalikan']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['clear']</t>
+          <t>['komen', 'lihat', 'isinya', 'sabda', 'ujungnya', 'kebalikan']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['komen', 'lihat', 'isi', 'sabda', 'ujung', 'balik']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4154,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23889</v>
+        <v>24218</v>
       </c>
       <c r="C92" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>beliau bilangnya bukan keliru tapi keleru</t>
+          <t>rt pwk klo gini gmn prediksi bung revisi atau prinsip keadilan yg akan di mirroring heuheu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['beliau', 'bilangnya', 'bukan', 'keliru', 'tapi', 'keleru']</t>
+          <t>['rt', 'pwk', 'klo', 'gini', 'gmn', 'prediksi', 'bung', 'revisi', 'atau', 'prinsip', 'keadilan', 'yg', 'akan', 'di', 'mirroring', 'heuheu']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'pwk', 'kalau', 'begini', 'bagaimana', 'prediksi', 'bung', 'revisi', 'atau', 'prinsip', 'keadilan', 'yang', 'akan', 'di', 'mirroring', 'heuheu']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['beliau', 'bilangnya', 'keliru', 'keleru']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['beliau', 'bilang', 'keliru', 'keleru']</t>
+          <t>['pwk', 'prediksi', 'revisi', 'prinsip', 'keadilan', 'mirroring', 'heuheu']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['pwk', 'prediksi', 'revisi', 'prinsip', 'adil', 'mirroring', 'heuheu']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4195,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23890</v>
+        <v>24219</v>
       </c>
       <c r="C93" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt sst kamerad ada yg ultah nih</t>
+          <t>rt tambahin bray</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'sst', 'kamerad', 'ada', 'yg', 'ultah', 'nih']</t>
+          <t>['rt', 'tambahin', 'bray']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'tambahkan', 'bro']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['sst', 'kamerad', 'ultah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['sst', 'kamerad', 'ultah']</t>
+          <t>['tambahkan', 'bro']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['tambah', 'bro']</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4236,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23891</v>
+        <v>24220</v>
       </c>
       <c r="C94" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt sosial supaya penjara terisi penuh orba upgrade edition</t>
+          <t>rt kalau dijabarkan menggunakan teorinya bung berarti agustus masih belum terbebas dari corona</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'sosial', 'supaya', 'penjara', 'terisi', 'penuh', 'orba', 'upgrade', 'edition']</t>
+          <t>['rt', 'kalau', 'dijabarkan', 'menggunakan', 'teorinya', 'bung', 'berarti', 'agustus', 'masih', 'belum', 'terbebas', 'dari', 'corona']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kalau', 'dijabarkan', 'menggunakan', 'teorinya', 'bung', 'berarti', 'agustus', 'masih', 'belum', 'terbebas', 'dari', 'corona']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['sosial', 'penjara', 'terisi', 'penuh', 'orba', 'upgrade', 'edition']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sosial', 'penjara', 'isi', 'penuh', 'orba', 'upgrade', 'edition']</t>
+          <t>['dijabarkan', 'teorinya', 'agustus', 'terbebas', 'corona']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['jabar', 'teori', 'agustus', 'bebas', 'corona']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4277,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23892</v>
+        <v>24221</v>
       </c>
       <c r="C95" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt selamat ulang tahun</t>
+          <t>rt ilmu klenik giriroto boyolali</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'ulang', 'tahun']</t>
+          <t>['rt', 'ilmu', 'klenik', 'giriroto', 'boyolali']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ilmu', 'klenik', 'giriroto', 'boyolali']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang']</t>
+          <t>['ilmu', 'klenik', 'giriroto', 'boyolali']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['ilmu', 'klenik', 'giriroto', 'boyolali']</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4318,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23893</v>
+        <v>24222</v>
       </c>
       <c r="C96" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt bung sudah lebih maju</t>
+          <t>rt tanggapannya</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'bung', 'sudah', 'lebih', 'maju']</t>
+          <t>['rt', 'tanggapannya']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'tanggapannya']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['maju']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['maju']</t>
+          <t>['tanggapannya']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['tanggap']</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4359,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23894</v>
+        <v>24223</v>
       </c>
       <c r="C97" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt bagus seolah ga pernah ada kritik dan masukan apa selama ini kita semua salah server bung</t>
+          <t>rt tanyain aja sama kalo pak joko kasih statement rakyat wajib percaya kebalikan dari statement tsb itu rumus</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'bagus', 'seolah', 'ga', 'pernah', 'ada', 'kritik', 'dan', 'masukan', 'apa', 'selama', 'ini', 'kita', 'semua', 'salah', 'server', 'bung']</t>
+          <t>['rt', 'tanyain', 'aja', 'sama', 'kalo', 'pak', 'joko', 'kasih', 'statement', 'rakyat', 'wajib', 'percaya', 'kebalikan', 'dari', 'statement', 'tsb', 'itu', 'rumus']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'tanyakan', 'saja', 'sama', 'kalau', 'pak', 'joko', 'kasih', 'pernyataan', 'rakyat', 'wajib', 'percaya', 'kebalikan', 'dari', 'pernyataan', 'tersebut', 'itu', 'rumus']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['bagus', 'kritik', 'masukan', 'salah', 'server']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['bagus', 'kritik', 'masuk', 'salah', 'server']</t>
+          <t>['joko', 'kasih', 'pernyataan', 'rakyat', 'wajib', 'percaya', 'kebalikan', 'pernyataan', 'rumus']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['joko', 'kasih', 'nyata', 'rakyat', 'wajib', 'percaya', 'balik', 'nyata', 'rumus']</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4400,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23895</v>
+        <v>24224</v>
       </c>
       <c r="C98" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt kalau dia yang ngomong berarti kebalikannya</t>
+          <t>rt jkt mungkin atau netijen budiman bisa keluarkan koleksi screenshot pernyataan pak presiden soal  tapi hasiln</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'dia', 'yang', 'ngomong', 'berarti', 'kebalikannya']</t>
+          <t>['rt', 'jkt', 'mungkin', 'atau', 'netijen', 'budiman', 'bisa', 'keluarkan', 'koleksi', 'screenshot', 'pernyataan', 'pak', 'presiden', 'soal', 'tapi', 'hasiln']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'mungkin', 'atau', 'warganet', 'budiman', 'bisa', 'keluarkan', 'koleksi', 'screenshot', 'pernyataan', 'pak', 'presiden', 'soal', 'tapi', 'hasiln']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['ngomong', 'kebalikannya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['ngomong', 'balik']</t>
+          <t>['jakarta', 'warganet', 'budiman', 'keluarkan', 'koleksi', 'screenshot', 'pernyataan', 'presiden', 'hasiln']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['jakarta', 'warganet', 'budiman', 'keluar', 'koleksi', 'screenshot', 'nyata', 'presiden', 'hasiln']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4441,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23896</v>
+        <v>24225</v>
       </c>
       <c r="C99" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rt tolong lemparkan arsip segudanggudangnya</t>
+          <t>rt ini bacanya gmn bung kebalikannya apa tambah parah</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['rt', 'tolong', 'lemparkan', 'arsip', 'segudanggudangnya']</t>
+          <t>['rt', 'ini', 'bacanya', 'gmn', 'bung', 'kebalikannya', 'apa', 'tambah', 'parah']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'ini', 'bacanya', 'bagaimana', 'bung', 'kebalikannya', 'apa', 'tambah', 'parah']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['tolong', 'lemparkan', 'arsip', 'segudanggudangnya']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['tolong', 'lempar', 'arsip', 'segudanggudangnya']</t>
+          <t>['bacanya', 'kebalikannya', 'parah']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['baca', 'balik', 'parah']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4482,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23897</v>
+        <v>24226</v>
       </c>
       <c r="C100" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt menurut majas sandalista maksud sebenarnya adalah masyarakat harus pasif sampaikan kritik dan masukan jika tidak ingin </t>
+          <t>rt perasaan gak enak nih karena selama ini apa yg diomongin selalu terbalik dengan apa yg kejadian cc</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['rt', 'menurut', 'majas', 'sandalista', 'maksud', 'sebenarnya', 'adalah', 'masyarakat', 'harus', 'pasif', 'sampaikan', 'kritik', 'dan', 'masukan', 'jika', 'tidak', 'ingin']</t>
+          <t>['rt', 'perasaan', 'gak', 'enak', 'nih', 'karena', 'selama', 'ini', 'apa', 'yg', 'diomongin', 'selalu', 'terbalik', 'dengan', 'apa', 'yg', 'kejadian', 'cc']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'perasaan', 'tidak', 'enak', 'nih', 'karena', 'selama', 'ini', 'apa', 'yang', 'diomongi', 'selalu', 'terbalik', 'dengan', 'apa', 'yang', 'kejadian', 'cc']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['majas', 'sandalista', 'maksud', 'masyarakat', 'pasif', 'kritik', 'masukan']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['majas', 'sandalista', 'maksud', 'masyarakat', 'pasif', 'kritik', 'masuk']</t>
+          <t>['perasaan', 'enak', 'diomongi', 'terbalik', 'kejadian', 'cc']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['asa', 'enak', 'omong', 'balik', 'jadi', 'cc']</t>
         </is>
       </c>
     </row>
@@ -4023,34 +4523,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23898</v>
+        <v>24227</v>
       </c>
       <c r="C101" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt sandalista piye mau diarsipkan tah cc</t>
+          <t>rt arsipkan dulu kamerad</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'sandalista', 'piye', 'mau', 'diarsipkan', 'tah', 'cc']</t>
+          <t>['rt', 'arsipkan', 'dulu', 'kamerad']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'arsipkan', 'dulu', 'kamerad']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['sandalista', 'piye', 'diarsipkan', 'tah', 'cc']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['sandalista', 'piye', 'arsip', 'tah', 'cc']</t>
+          <t>['arsipkan', 'kamerad']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['arsip', 'kamerad']</t>
         </is>
       </c>
     </row>
